--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lpada\projects\a_number_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lpada\projects\a_number_processing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF72989-9B2F-4A67-B441-36969B414D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBDEC7F-44A9-4FA4-8ABF-D864615CDB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{AC9598C4-E768-446D-96FD-DD02A31709F0}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{AC9598C4-E768-446D-96FD-DD02A31709F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>The A-number, 123-456-789, should have the same UID as in cell A1.</t>
   </si>
@@ -48,6 +49,24 @@
   </si>
   <si>
     <t>This document contains fake A-numbers like, A123456789</t>
+  </si>
+  <si>
+    <t>This document contains fake A-numbers like, UID-0</t>
+  </si>
+  <si>
+    <t>The A-number, UID-0, should have the same UID as in cell A1.</t>
+  </si>
+  <si>
+    <t>The A-number, UID-1, should have the same UID as cell A2.</t>
+  </si>
+  <si>
+    <t>The A-number, 12345678, should also have the same UID as cell A2.</t>
+  </si>
+  <si>
+    <t>The A-number, UID-1, should also have the same UID as cell A2.</t>
+  </si>
+  <si>
+    <t>and UID-2.</t>
   </si>
 </sst>
 </file>
@@ -419,9 +438,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6784FC4C-D56F-44FB-B58D-1E93411CDB80}">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -445,6 +467,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05E9F5C-967C-4956-8580-D838600A2093}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
